--- a/resource/target.xlsx
+++ b/resource/target.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shzhou\Desktop\Learn Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shzhou\Desktop\Learn Python\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -314,7 +314,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,12 +373,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="22"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -587,66 +581,69 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,7 +962,7 @@
   <dimension ref="B1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:K3"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -975,356 +972,351 @@
       <c r="B2" s="1" t="s" ph="1">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s" ph="1">
+      <c r="C2" s="18" t="s" ph="1">
         <v>1</v>
       </c>
-      <c r="D2" s="2" ph="1"/>
-      <c r="E2" s="2" ph="1"/>
-      <c r="F2" s="2" ph="1"/>
-      <c r="G2" s="2" ph="1"/>
-      <c r="H2" s="2" ph="1"/>
-      <c r="I2" s="2" ph="1"/>
-      <c r="J2" s="2" ph="1"/>
-      <c r="K2" s="2" ph="1"/>
-      <c r="L2" s="3" t="s" ph="1">
+      <c r="D2" s="18" ph="1"/>
+      <c r="E2" s="18" ph="1"/>
+      <c r="F2" s="18" ph="1"/>
+      <c r="G2" s="18" ph="1"/>
+      <c r="H2" s="18" ph="1"/>
+      <c r="I2" s="18" ph="1"/>
+      <c r="J2" s="18" ph="1"/>
+      <c r="K2" s="18" ph="1"/>
+      <c r="L2" s="2" t="s" ph="1">
         <v>13</v>
       </c>
-      <c r="M2" s="3" t="s" ph="1">
+      <c r="M2" s="2" t="s" ph="1">
         <v>14</v>
       </c>
-      <c r="N2" s="3" t="s" ph="1">
+      <c r="N2" s="2" t="s" ph="1">
         <v>15</v>
       </c>
-      <c r="O2" s="4" t="s" ph="1">
+      <c r="O2" s="3" t="s" ph="1">
         <v>16</v>
       </c>
-      <c r="P2" s="5" t="s" ph="1">
+      <c r="P2" s="4" t="s" ph="1">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="36" x14ac:dyDescent="0.35">
-      <c r="B3" s="6" ph="1">
+      <c r="B3" s="5" ph="1">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s" ph="1">
+      <c r="C3" s="16" t="s" ph="1">
         <v>3</v>
       </c>
-      <c r="D3" s="7" ph="1"/>
-      <c r="E3" s="7" ph="1"/>
-      <c r="F3" s="7" ph="1"/>
-      <c r="G3" s="7" ph="1"/>
-      <c r="H3" s="7" ph="1"/>
-      <c r="I3" s="7" ph="1"/>
-      <c r="J3" s="7" ph="1"/>
-      <c r="K3" s="7" ph="1"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="11"/>
+      <c r="D3" s="16" ph="1"/>
+      <c r="E3" s="16" ph="1"/>
+      <c r="F3" s="16" ph="1"/>
+      <c r="G3" s="16" ph="1"/>
+      <c r="H3" s="16" ph="1"/>
+      <c r="I3" s="16" ph="1"/>
+      <c r="J3" s="16" ph="1"/>
+      <c r="K3" s="16" ph="1"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
     </row>
     <row r="4" spans="2:16" ht="36" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" ph="1">
+      <c r="B4" s="5" ph="1">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s" ph="1">
+      <c r="C4" s="16" t="s" ph="1">
         <v>17</v>
       </c>
-      <c r="D4" s="7" ph="1"/>
-      <c r="E4" s="7" ph="1"/>
-      <c r="F4" s="7" ph="1"/>
-      <c r="G4" s="7" ph="1"/>
-      <c r="H4" s="7" ph="1"/>
-      <c r="I4" s="7" ph="1"/>
-      <c r="J4" s="7" ph="1"/>
-      <c r="K4" s="7" ph="1"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="11"/>
+      <c r="D4" s="16" ph="1"/>
+      <c r="E4" s="16" ph="1"/>
+      <c r="F4" s="16" ph="1"/>
+      <c r="G4" s="16" ph="1"/>
+      <c r="H4" s="16" ph="1"/>
+      <c r="I4" s="16" ph="1"/>
+      <c r="J4" s="16" ph="1"/>
+      <c r="K4" s="16" ph="1"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="8"/>
     </row>
     <row r="5" spans="2:16" ht="36" x14ac:dyDescent="0.35">
-      <c r="B5" s="6" ph="1">
+      <c r="B5" s="5" ph="1">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s" ph="1">
+      <c r="C5" s="16" t="s" ph="1">
         <v>18</v>
       </c>
-      <c r="D5" s="7" ph="1"/>
-      <c r="E5" s="7" ph="1"/>
-      <c r="F5" s="7" ph="1"/>
-      <c r="G5" s="7" ph="1"/>
-      <c r="H5" s="7" ph="1"/>
-      <c r="I5" s="7" ph="1"/>
-      <c r="J5" s="7" ph="1"/>
-      <c r="K5" s="7" ph="1"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="11"/>
+      <c r="D5" s="16" ph="1"/>
+      <c r="E5" s="16" ph="1"/>
+      <c r="F5" s="16" ph="1"/>
+      <c r="G5" s="16" ph="1"/>
+      <c r="H5" s="16" ph="1"/>
+      <c r="I5" s="16" ph="1"/>
+      <c r="J5" s="16" ph="1"/>
+      <c r="K5" s="16" ph="1"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="8"/>
     </row>
     <row r="6" spans="2:16" ht="36" x14ac:dyDescent="0.35">
-      <c r="B6" s="6" ph="1">
+      <c r="B6" s="5" ph="1">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="s" ph="1">
+      <c r="C6" s="16" t="s" ph="1">
         <v>19</v>
       </c>
-      <c r="D6" s="7" ph="1"/>
-      <c r="E6" s="7" ph="1"/>
-      <c r="F6" s="7" ph="1"/>
-      <c r="G6" s="7" ph="1"/>
-      <c r="H6" s="7" ph="1"/>
-      <c r="I6" s="7" ph="1"/>
-      <c r="J6" s="7" ph="1"/>
-      <c r="K6" s="7" ph="1"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="11"/>
+      <c r="D6" s="16" ph="1"/>
+      <c r="E6" s="16" ph="1"/>
+      <c r="F6" s="16" ph="1"/>
+      <c r="G6" s="16" ph="1"/>
+      <c r="H6" s="16" ph="1"/>
+      <c r="I6" s="16" ph="1"/>
+      <c r="J6" s="16" ph="1"/>
+      <c r="K6" s="16" ph="1"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="8"/>
     </row>
     <row r="7" spans="2:16" ht="36" x14ac:dyDescent="0.35">
-      <c r="B7" s="6" ph="1">
+      <c r="B7" s="5" ph="1">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s" ph="1">
+      <c r="C7" s="16" t="s" ph="1">
         <v>20</v>
       </c>
-      <c r="D7" s="7" ph="1"/>
-      <c r="E7" s="7" ph="1"/>
-      <c r="F7" s="7" ph="1"/>
-      <c r="G7" s="7" ph="1"/>
-      <c r="H7" s="7" ph="1"/>
-      <c r="I7" s="7" ph="1"/>
-      <c r="J7" s="7" ph="1"/>
-      <c r="K7" s="7" ph="1"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="11"/>
+      <c r="D7" s="16" ph="1"/>
+      <c r="E7" s="16" ph="1"/>
+      <c r="F7" s="16" ph="1"/>
+      <c r="G7" s="16" ph="1"/>
+      <c r="H7" s="16" ph="1"/>
+      <c r="I7" s="16" ph="1"/>
+      <c r="J7" s="16" ph="1"/>
+      <c r="K7" s="16" ph="1"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="8"/>
     </row>
     <row r="8" spans="2:16" ht="36" x14ac:dyDescent="0.35">
-      <c r="B8" s="6" ph="1">
+      <c r="B8" s="5" ph="1">
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="s" ph="1">
+      <c r="C8" s="16" t="s" ph="1">
         <v>21</v>
       </c>
-      <c r="D8" s="7" ph="1"/>
-      <c r="E8" s="7" ph="1"/>
-      <c r="F8" s="7" ph="1"/>
-      <c r="G8" s="7" ph="1"/>
-      <c r="H8" s="7" ph="1"/>
-      <c r="I8" s="7" ph="1"/>
-      <c r="J8" s="7" ph="1"/>
-      <c r="K8" s="7" ph="1"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="14"/>
+      <c r="D8" s="16" ph="1"/>
+      <c r="E8" s="16" ph="1"/>
+      <c r="F8" s="16" ph="1"/>
+      <c r="G8" s="16" ph="1"/>
+      <c r="H8" s="16" ph="1"/>
+      <c r="I8" s="16" ph="1"/>
+      <c r="J8" s="16" ph="1"/>
+      <c r="K8" s="16" ph="1"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="11"/>
     </row>
     <row r="9" spans="2:16" ht="36" x14ac:dyDescent="0.35">
-      <c r="B9" s="6" ph="1">
+      <c r="B9" s="5" ph="1">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="s" ph="1">
+      <c r="C9" s="16" t="s" ph="1">
         <v>4</v>
       </c>
-      <c r="D9" s="7" ph="1"/>
-      <c r="E9" s="7" ph="1"/>
-      <c r="F9" s="7" ph="1"/>
-      <c r="G9" s="7" ph="1"/>
-      <c r="H9" s="7" ph="1"/>
-      <c r="I9" s="7" ph="1"/>
-      <c r="J9" s="7" ph="1"/>
-      <c r="K9" s="7" ph="1"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="14"/>
+      <c r="D9" s="16" ph="1"/>
+      <c r="E9" s="16" ph="1"/>
+      <c r="F9" s="16" ph="1"/>
+      <c r="G9" s="16" ph="1"/>
+      <c r="H9" s="16" ph="1"/>
+      <c r="I9" s="16" ph="1"/>
+      <c r="J9" s="16" ph="1"/>
+      <c r="K9" s="16" ph="1"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="11"/>
     </row>
     <row r="10" spans="2:16" ht="36" x14ac:dyDescent="0.35">
-      <c r="B10" s="6" ph="1">
+      <c r="B10" s="5" ph="1">
         <v>8</v>
       </c>
-      <c r="C10" s="7" t="s" ph="1">
+      <c r="C10" s="16" t="s" ph="1">
         <v>5</v>
       </c>
-      <c r="D10" s="7" ph="1"/>
-      <c r="E10" s="7" ph="1"/>
-      <c r="F10" s="7" ph="1"/>
-      <c r="G10" s="7" ph="1"/>
-      <c r="H10" s="7" ph="1"/>
-      <c r="I10" s="7" ph="1"/>
-      <c r="J10" s="7" ph="1"/>
-      <c r="K10" s="7" ph="1"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="14"/>
+      <c r="D10" s="16" ph="1"/>
+      <c r="E10" s="16" ph="1"/>
+      <c r="F10" s="16" ph="1"/>
+      <c r="G10" s="16" ph="1"/>
+      <c r="H10" s="16" ph="1"/>
+      <c r="I10" s="16" ph="1"/>
+      <c r="J10" s="16" ph="1"/>
+      <c r="K10" s="16" ph="1"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="11"/>
     </row>
     <row r="11" spans="2:16" ht="36" x14ac:dyDescent="0.35">
-      <c r="B11" s="6" ph="1">
+      <c r="B11" s="5" ph="1">
         <v>9</v>
       </c>
-      <c r="C11" s="7" t="s" ph="1">
+      <c r="C11" s="16" t="s" ph="1">
         <v>6</v>
       </c>
-      <c r="D11" s="7" ph="1"/>
-      <c r="E11" s="7" ph="1"/>
-      <c r="F11" s="7" ph="1"/>
-      <c r="G11" s="7" ph="1"/>
-      <c r="H11" s="7" ph="1"/>
-      <c r="I11" s="7" ph="1"/>
-      <c r="J11" s="7" ph="1"/>
-      <c r="K11" s="7" ph="1"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="14"/>
+      <c r="D11" s="16" ph="1"/>
+      <c r="E11" s="16" ph="1"/>
+      <c r="F11" s="16" ph="1"/>
+      <c r="G11" s="16" ph="1"/>
+      <c r="H11" s="16" ph="1"/>
+      <c r="I11" s="16" ph="1"/>
+      <c r="J11" s="16" ph="1"/>
+      <c r="K11" s="16" ph="1"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="11"/>
     </row>
     <row r="12" spans="2:16" ht="36" x14ac:dyDescent="0.35">
-      <c r="B12" s="6" ph="1">
+      <c r="B12" s="5" ph="1">
         <v>10</v>
       </c>
-      <c r="C12" s="7" t="s" ph="1">
+      <c r="C12" s="16" t="s" ph="1">
         <v>7</v>
       </c>
-      <c r="D12" s="7" ph="1"/>
-      <c r="E12" s="7" ph="1"/>
-      <c r="F12" s="7" ph="1"/>
-      <c r="G12" s="7" ph="1"/>
-      <c r="H12" s="7" ph="1"/>
-      <c r="I12" s="7" ph="1"/>
-      <c r="J12" s="7" ph="1"/>
-      <c r="K12" s="7" ph="1"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="14"/>
+      <c r="D12" s="16" ph="1"/>
+      <c r="E12" s="16" ph="1"/>
+      <c r="F12" s="16" ph="1"/>
+      <c r="G12" s="16" ph="1"/>
+      <c r="H12" s="16" ph="1"/>
+      <c r="I12" s="16" ph="1"/>
+      <c r="J12" s="16" ph="1"/>
+      <c r="K12" s="16" ph="1"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="11"/>
     </row>
     <row r="13" spans="2:16" ht="36" x14ac:dyDescent="0.35">
-      <c r="B13" s="6" ph="1">
+      <c r="B13" s="5" ph="1">
         <v>11</v>
       </c>
-      <c r="C13" s="7" t="s" ph="1">
+      <c r="C13" s="16" t="s" ph="1">
         <v>8</v>
       </c>
-      <c r="D13" s="7" ph="1"/>
-      <c r="E13" s="7" ph="1"/>
-      <c r="F13" s="7" ph="1"/>
-      <c r="G13" s="7" ph="1"/>
-      <c r="H13" s="7" ph="1"/>
-      <c r="I13" s="7" ph="1"/>
-      <c r="J13" s="7" ph="1"/>
-      <c r="K13" s="7" ph="1"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="14"/>
+      <c r="D13" s="16" ph="1"/>
+      <c r="E13" s="16" ph="1"/>
+      <c r="F13" s="16" ph="1"/>
+      <c r="G13" s="16" ph="1"/>
+      <c r="H13" s="16" ph="1"/>
+      <c r="I13" s="16" ph="1"/>
+      <c r="J13" s="16" ph="1"/>
+      <c r="K13" s="16" ph="1"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="11"/>
     </row>
     <row r="14" spans="2:16" ht="36" x14ac:dyDescent="0.35">
-      <c r="B14" s="6" ph="1">
+      <c r="B14" s="5" ph="1">
         <v>12</v>
       </c>
-      <c r="C14" s="7" t="s" ph="1">
+      <c r="C14" s="16" t="s" ph="1">
         <v>9</v>
       </c>
-      <c r="D14" s="7" ph="1"/>
-      <c r="E14" s="7" ph="1"/>
-      <c r="F14" s="7" ph="1"/>
-      <c r="G14" s="7" ph="1"/>
-      <c r="H14" s="7" ph="1"/>
-      <c r="I14" s="7" ph="1"/>
-      <c r="J14" s="7" ph="1"/>
-      <c r="K14" s="7" ph="1"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="14"/>
+      <c r="D14" s="16" ph="1"/>
+      <c r="E14" s="16" ph="1"/>
+      <c r="F14" s="16" ph="1"/>
+      <c r="G14" s="16" ph="1"/>
+      <c r="H14" s="16" ph="1"/>
+      <c r="I14" s="16" ph="1"/>
+      <c r="J14" s="16" ph="1"/>
+      <c r="K14" s="16" ph="1"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="11"/>
     </row>
     <row r="15" spans="2:16" ht="36" x14ac:dyDescent="0.35">
-      <c r="B15" s="6" ph="1">
+      <c r="B15" s="5" ph="1">
         <v>13</v>
       </c>
-      <c r="C15" s="7" t="s" ph="1">
+      <c r="C15" s="16" t="s" ph="1">
         <v>10</v>
       </c>
-      <c r="D15" s="7" ph="1"/>
-      <c r="E15" s="7" ph="1"/>
-      <c r="F15" s="7" ph="1"/>
-      <c r="G15" s="7" ph="1"/>
-      <c r="H15" s="7" ph="1"/>
-      <c r="I15" s="7" ph="1"/>
-      <c r="J15" s="7" ph="1"/>
-      <c r="K15" s="7" ph="1"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="14"/>
+      <c r="D15" s="16" ph="1"/>
+      <c r="E15" s="16" ph="1"/>
+      <c r="F15" s="16" ph="1"/>
+      <c r="G15" s="16" ph="1"/>
+      <c r="H15" s="16" ph="1"/>
+      <c r="I15" s="16" ph="1"/>
+      <c r="J15" s="16" ph="1"/>
+      <c r="K15" s="16" ph="1"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="11"/>
     </row>
     <row r="16" spans="2:16" ht="36" x14ac:dyDescent="0.35">
-      <c r="B16" s="6" ph="1">
+      <c r="B16" s="5" ph="1">
         <v>14</v>
       </c>
-      <c r="C16" s="7" t="s" ph="1">
+      <c r="C16" s="16" t="s" ph="1">
         <v>11</v>
       </c>
-      <c r="D16" s="7" ph="1"/>
-      <c r="E16" s="7" ph="1"/>
-      <c r="F16" s="7" ph="1"/>
-      <c r="G16" s="7" ph="1"/>
-      <c r="H16" s="7" ph="1"/>
-      <c r="I16" s="7" ph="1"/>
-      <c r="J16" s="7" ph="1"/>
-      <c r="K16" s="7" ph="1"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="14"/>
+      <c r="D16" s="16" ph="1"/>
+      <c r="E16" s="16" ph="1"/>
+      <c r="F16" s="16" ph="1"/>
+      <c r="G16" s="16" ph="1"/>
+      <c r="H16" s="16" ph="1"/>
+      <c r="I16" s="16" ph="1"/>
+      <c r="J16" s="16" ph="1"/>
+      <c r="K16" s="16" ph="1"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="11"/>
     </row>
     <row r="17" spans="2:16" ht="36.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="15" ph="1">
+      <c r="B17" s="12" ph="1">
         <v>15</v>
       </c>
-      <c r="C17" s="16" t="s" ph="1">
+      <c r="C17" s="17" t="s" ph="1">
         <v>12</v>
       </c>
-      <c r="D17" s="16" ph="1"/>
-      <c r="E17" s="16" ph="1"/>
-      <c r="F17" s="16" ph="1"/>
-      <c r="G17" s="16" ph="1"/>
-      <c r="H17" s="16" ph="1"/>
-      <c r="I17" s="16" ph="1"/>
-      <c r="J17" s="16" ph="1"/>
-      <c r="K17" s="16" ph="1"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="19"/>
+      <c r="D17" s="17" ph="1"/>
+      <c r="E17" s="17" ph="1"/>
+      <c r="F17" s="17" ph="1"/>
+      <c r="G17" s="17" ph="1"/>
+      <c r="H17" s="17" ph="1"/>
+      <c r="I17" s="17" ph="1"/>
+      <c r="J17" s="17" ph="1"/>
+      <c r="K17" s="17" ph="1"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="15"/>
     </row>
     <row r="18" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
     <mergeCell ref="C17:K17"/>
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="C3:K3"/>
@@ -1336,6 +1328,11 @@
     <mergeCell ref="C9:K9"/>
     <mergeCell ref="C10:K10"/>
     <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
